--- a/datasets/updated_2021_CAFO.xlsx
+++ b/datasets/updated_2021_CAFO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{E28DC324-6D1A-4294-BEF3-0DBC531B2314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{606DDD46-1A58-46D9-9E2B-8CF8FAF74DC3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{E28DC324-6D1A-4294-BEF3-0DBC531B2314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1918CEC9-F728-49C7-B003-EDF9CFF4466A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DF0C1D31-7884-46C0-A8D3-AAD873187912}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Country</t>
   </si>
@@ -51,9 +51,6 @@
     <t>The Netherlands</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -96,18 +93,6 @@
     <t>RefID: 32507932</t>
   </si>
   <si>
-    <t>Uterine cancer mortality in White and African American females in southeastern North Carolina</t>
-  </si>
-  <si>
-    <t>RefID: 32508073</t>
-  </si>
-  <si>
-    <t> Heterogeneity in hotspots: spatio-temporal patterns in neglected parasitic diseases</t>
-  </si>
-  <si>
-    <t>RefID: 32508091</t>
-  </si>
-  <si>
     <t>Risk of infectious gastroenteritis in young children living in quebec rural areas with intensive animal farming: results of a case-control study (2004-2007)</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
   </si>
   <si>
     <t>nl</t>
-  </si>
-  <si>
-    <t>nz</t>
   </si>
   <si>
     <t>ca</t>
@@ -590,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7F7CE3-C12D-4500-9553-2EEF0C92AB1C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -620,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -637,16 +619,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -654,16 +636,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -671,98 +653,98 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>2015</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>57</v>
@@ -773,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -790,50 +772,50 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -841,16 +823,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -858,50 +840,50 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
         <v>2015</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -909,16 +891,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -926,21 +908,21 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -949,48 +931,14 @@
         <v>2017</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
